--- a/public/other-files/example-craft-config.xlsx
+++ b/public/other-files/example-craft-config.xlsx
@@ -16,30 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>baseUrl</t>
-  </si>
-  <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>hasUrls</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>group</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Base Url</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Has Urls</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
   <si>
     <t>en</t>
@@ -60,28 +60,31 @@
     <t>Deutsch</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>$PRIMARY_URL_DE</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>titleTranslationMethod</t>
-  </si>
-  <si>
-    <t>titleTranslationKeyFormat</t>
-  </si>
-  <si>
-    <t>showSlug</t>
-  </si>
-  <si>
-    <t>slugTranslationMethod</t>
-  </si>
-  <si>
-    <t>slugTranslationKeyFormat</t>
-  </si>
-  <si>
-    <t>showStatusField</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Title Translation Method</t>
+  </si>
+  <si>
+    <t>Title Translation Key Format</t>
+  </si>
+  <si>
+    <t>Show Slug</t>
+  </si>
+  <si>
+    <t>Slug Translation Method</t>
+  </si>
+  <si>
+    <t>Slug Translation Key Format</t>
+  </si>
+  <si>
+    <t>Show Status Field</t>
   </si>
   <si>
     <t>default_pagebuilder</t>
@@ -96,55 +99,73 @@
     <t>Translate for each language</t>
   </si>
   <si>
+    <t>Translate for each site</t>
+  </si>
+  <si>
+    <t>default_contentbuilder</t>
+  </si>
+  <si>
+    <t>Default Contentbuilder</t>
+  </si>
+  <si>
+    <t>Build parts of pages with this entry type</t>
+  </si>
+  <si>
+    <t>Custom…</t>
+  </si>
+  <si>
+    <t>{{include('global/site.twig')}}</t>
+  </si>
+  <si>
     <t>Not translatable</t>
   </si>
   <si>
-    <t>default_contentbuilder</t>
-  </si>
-  <si>
-    <t>Default Contentbuilder</t>
-  </si>
-  <si>
-    <t>Build parts of pages with this entry type</t>
-  </si>
-  <si>
-    <t>Custom…</t>
-  </si>
-  <si>
-    <t>{{include('global/site.twig')}}</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>siteUri</t>
-  </si>
-  <si>
-    <t>siteTemplate</t>
-  </si>
-  <si>
-    <t>siteHome</t>
-  </si>
-  <si>
-    <t>siteDefaultStatus</t>
-  </si>
-  <si>
-    <t>entryTypes</t>
-  </si>
-  <si>
-    <t>propagationMethod</t>
-  </si>
-  <si>
-    <t>maxAuthors</t>
-  </si>
-  <si>
-    <t>maxLevels</t>
-  </si>
-  <si>
-    <t>defaultPlacement</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Site Uri</t>
+  </si>
+  <si>
+    <t>Site Template</t>
+  </si>
+  <si>
+    <t>Site Home</t>
+  </si>
+  <si>
+    <t>Site Default Status</t>
+  </si>
+  <si>
+    <t>Entry Types</t>
+  </si>
+  <si>
+    <t>Propagation Method</t>
+  </si>
+  <si>
+    <t>Max Authors</t>
+  </si>
+  <si>
+    <t>Max Levels</t>
+  </si>
+  <si>
+    <t>Default Placement</t>
+  </si>
+  <si>
+    <t>Enable Versioning</t>
+  </si>
+  <si>
+    <t>Enable Preview Targets</t>
+  </si>
+  <si>
+    <t>Preview Target Label</t>
+  </si>
+  <si>
+    <t>Preview Target Url Format</t>
+  </si>
+  <si>
+    <t>Preview Target Auto Refresh</t>
   </si>
   <si>
     <t>blog</t>
@@ -195,10 +216,37 @@
     <t>Before other entries</t>
   </si>
   <si>
-    <t>publicUrls</t>
-  </si>
-  <si>
-    <t>basePath</t>
+    <t>blogCategories</t>
+  </si>
+  <si>
+    <t>Blog Categories</t>
+  </si>
+  <si>
+    <t>After other entries</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>En Preview</t>
+  </si>
+  <si>
+    <t>{url}</t>
+  </si>
+  <si>
+    <t>Default Preview</t>
+  </si>
+  <si>
+    <t>{url}/de</t>
+  </si>
+  <si>
+    <t>Public Urls</t>
+  </si>
+  <si>
+    <t>Base Path</t>
   </si>
   <si>
     <t>images</t>
@@ -222,47 +270,53 @@
     <t>@webroot/assets/graphics</t>
   </si>
   <si>
-    <t>fsHandle</t>
-  </si>
-  <si>
-    <t>subpath</t>
-  </si>
-  <si>
-    <t>transformFsHandle</t>
-  </si>
-  <si>
-    <t>transformSubpath</t>
-  </si>
-  <si>
-    <t>altTranslationMethod</t>
-  </si>
-  <si>
-    <t>altTranslationKeyFormat</t>
+    <t>Fs Handle</t>
+  </si>
+  <si>
+    <t>Subpath</t>
+  </si>
+  <si>
+    <t>Transform Fs Handle</t>
+  </si>
+  <si>
+    <t>Transform Subpath</t>
+  </si>
+  <si>
+    <t>Alt Translation Method</t>
+  </si>
+  <si>
+    <t>Alt Translation Key Format</t>
   </si>
   <si>
     <t>/images/transforms</t>
   </si>
   <si>
-    <t>Translate for each site</t>
-  </si>
-  <si>
-    <t>After other entries</t>
+    <t>Dropdown Values</t>
+  </si>
+  <si>
+    <t>Translation Method</t>
   </si>
   <si>
     <t>Translate for each site group</t>
   </si>
   <si>
+    <t>Section Type</t>
+  </si>
+  <si>
     <t>Save entries to all sites enabled for this section</t>
   </si>
   <si>
     <t>Let each entry choose which sites it should be saved to</t>
+  </si>
+  <si>
+    <t>Where to save new entries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -270,6 +324,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -289,15 +356,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -566,54 +638,54 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="b">
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -632,14 +704,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.88"/>
-    <col customWidth="1" min="2" max="2" width="18.5"/>
-    <col customWidth="1" min="3" max="3" width="31.63"/>
+    <col customWidth="1" min="1" max="1" width="17.38"/>
+    <col customWidth="1" min="2" max="2" width="17.63"/>
+    <col customWidth="1" min="3" max="3" width="30.0"/>
     <col customWidth="1" min="4" max="4" width="26.63"/>
-    <col customWidth="1" min="5" max="5" width="21.13"/>
-    <col customWidth="1" min="6" max="6" width="19.88"/>
-    <col customWidth="1" min="7" max="7" width="17.75"/>
-    <col customWidth="1" min="8" max="9" width="20.38"/>
+    <col customWidth="1" min="5" max="5" width="23.38"/>
+    <col customWidth="1" min="6" max="6" width="9.5"/>
+    <col customWidth="1" min="7" max="7" width="22.25"/>
+    <col customWidth="1" min="8" max="8" width="23.63"/>
+    <col customWidth="1" min="9" max="9" width="15.38"/>
     <col customWidth="1" min="10" max="10" width="13.25"/>
   </cols>
   <sheetData>
@@ -651,80 +724,80 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="b">
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="b">
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="b">
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D3 G2:G3">
-      <formula1>Settings!$A$1:$A$5</formula1>
+      <formula1>Settings!$A$5:$A$9</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -741,189 +814,337 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="14.88"/>
     <col customWidth="1" min="6" max="6" width="14.38"/>
-    <col customWidth="1" min="8" max="8" width="13.63"/>
-    <col customWidth="1" min="9" max="9" width="57.88"/>
+    <col customWidth="1" min="7" max="7" width="9.13"/>
+    <col customWidth="1" min="8" max="8" width="18.75"/>
+    <col customWidth="1" min="9" max="9" width="38.75"/>
     <col customWidth="1" min="10" max="10" width="43.25"/>
     <col customWidth="1" min="13" max="13" width="20.5"/>
+    <col customWidth="1" min="14" max="14" width="16.38"/>
+    <col customWidth="1" min="15" max="15" width="19.63"/>
+    <col customWidth="1" min="16" max="16" width="19.0"/>
+    <col customWidth="1" min="17" max="17" width="23.0"/>
+    <col customWidth="1" min="18" max="18" width="25.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="1" t="b">
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="1">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="2">
         <v>2.0</v>
       </c>
+      <c r="N2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="1" t="b">
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="N3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="N4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>58</v>
+      <c r="K7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="N7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D5">
-      <formula1>Sites!$A$2:$A$8</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D7">
+      <formula1>Sites!$A$2:$A$101</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2 C4:C5">
-      <formula1>Settings!$A$10:$A$12</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M5:M6">
+      <formula1>Settings!$A$27:$A$28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2 I4:I5">
-      <formula1>Entrytypes!$A$2:$A$4</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2 J4:J7">
+      <formula1>Settings!$A$19:$A$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M5">
-      <formula1>Settings!$G$1:$G$2</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2 C4:C7">
+      <formula1>Settings!$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2 J4:J5">
-      <formula1>Settings!$E$1:$E$5</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2 I4:I7">
+      <formula1>Entrytypes!$A$2:$A$101</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -941,7 +1162,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="4" max="4" width="30.38"/>
-    <col customWidth="1" min="5" max="5" width="19.75"/>
+    <col customWidth="1" min="5" max="5" width="20.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -952,44 +1173,44 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="b">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>63</v>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>67</v>
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1017,90 +1238,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>73</v>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2 G2:G3">
+      <formula1>Settings!$A$5:$A$9</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2 C2:C3">
-      <formula1>FileSystem!$A$2:$A$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2 G2:G3">
-      <formula1>Settings!$A$1:$A$5</formula1>
+      <formula1>FileSystem!$A$2:$A$101</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -1117,89 +1338,131 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.25"/>
+    <col customWidth="1" min="1" max="1" width="41.75"/>
+    <col customWidth="1" min="2" max="2" width="33.38"/>
     <col customWidth="1" min="5" max="5" width="41.75"/>
     <col customWidth="1" min="7" max="7" width="15.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
